--- a/현대물리실험/마이켈슨 간섭계/DATA.xlsx
+++ b/현대물리실험/마이켈슨 간섭계/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jeonghyun\GIT\SNU_PJH\현대물리실험\마이켈슨 간섭계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94F8D629-A526-4515-BF6C-7C98219CD3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8799456-E7FF-48FB-8201-A6405738A7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{2D8F5F72-F9A5-46F3-A750-0B38B33D84AC}"/>
+    <workbookView xWindow="2030" yWindow="3920" windowWidth="15030" windowHeight="11260" xr2:uid="{2D8F5F72-F9A5-46F3-A750-0B38B33D84AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1369,15 +1369,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0EFB7B-302F-4156-BC2F-41F49042740E}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1403,8 +1403,12 @@
         <f>2/296</f>
         <v>6.7567567567567571E-3</v>
       </c>
+      <c r="H2">
+        <f>SQRT((675.7-650)/650*2)*180/PI()</f>
+        <v>16.111928041557093</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1416,7 +1420,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>15</v>
       </c>
@@ -1428,7 +1432,7 @@
         <v>0.81081081081081086</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>20</v>
       </c>
@@ -1440,7 +1444,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>25</v>
       </c>
